--- a/AppealFormExcels/paydas.m346@gmail.com.xlsx
+++ b/AppealFormExcels/paydas.m346@gmail.com.xlsx
@@ -761,7 +761,7 @@
       <c r="H5" s="43" t="n"/>
       <c r="I5" s="19" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>1998-02-20</t>
         </is>
       </c>
       <c r="J5" s="42" t="n"/>
@@ -773,7 +773,11 @@
       <c r="P5" s="42" t="n"/>
       <c r="Q5" s="42" t="n"/>
       <c r="R5" s="43" t="n"/>
-      <c r="S5" s="21" t="inlineStr"/>
+      <c r="S5" s="21" t="inlineStr">
+        <is>
+          <t>Birecik</t>
+        </is>
+      </c>
       <c r="T5" s="42" t="n"/>
       <c r="U5" s="42" t="n"/>
       <c r="V5" s="42" t="n"/>
@@ -801,7 +805,11 @@
         </is>
       </c>
       <c r="J6" s="43" t="n"/>
-      <c r="K6" s="21" t="n"/>
+      <c r="K6" s="21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L6" s="22" t="inlineStr">
         <is>
           <t>Kadın</t>
@@ -839,7 +847,11 @@
       <c r="F7" s="42" t="n"/>
       <c r="G7" s="42" t="n"/>
       <c r="H7" s="43" t="n"/>
-      <c r="I7" s="22" t="n"/>
+      <c r="I7" s="22" t="inlineStr">
+        <is>
+          <t>Tahsin Banguoğlu KYK Yurdu  Dumlupınar bulvarı Söğütözü mahallesi Çankaya/Ankara</t>
+        </is>
+      </c>
       <c r="J7" s="42" t="n"/>
       <c r="K7" s="42" t="n"/>
       <c r="L7" s="42" t="n"/>
@@ -871,11 +883,7 @@
       <c r="F8" s="42" t="n"/>
       <c r="G8" s="42" t="n"/>
       <c r="H8" s="43" t="n"/>
-      <c r="I8" s="18" t="inlineStr">
-        <is>
-          <t>Ev:</t>
-        </is>
-      </c>
+      <c r="I8" s="18" t="inlineStr"/>
       <c r="J8" s="42" t="n"/>
       <c r="K8" s="42" t="n"/>
       <c r="L8" s="42" t="n"/>
@@ -884,7 +892,7 @@
       <c r="O8" s="43" t="n"/>
       <c r="P8" s="18" t="inlineStr">
         <is>
-          <t>Cep:</t>
+          <t>05418868343</t>
         </is>
       </c>
       <c r="Q8" s="42" t="n"/>
@@ -997,7 +1005,7 @@
       <c r="H12" s="49" t="n"/>
       <c r="I12" s="18" t="inlineStr">
         <is>
-          <t>......................................tarihine kadar tecilliyim</t>
+          <t>........2024..........tarihine kadar tecilliyim</t>
         </is>
       </c>
       <c r="J12" s="42" t="n"/>
@@ -1031,7 +1039,7 @@
       <c r="F13" s="42" t="n"/>
       <c r="G13" s="42" t="n"/>
       <c r="H13" s="43" t="n"/>
-      <c r="I13" s="22" t="n"/>
+      <c r="I13" s="22" t="inlineStr"/>
       <c r="J13" s="42" t="n"/>
       <c r="K13" s="42" t="n"/>
       <c r="L13" s="42" t="n"/>
@@ -1098,7 +1106,7 @@
       <c r="I15" s="42" t="n"/>
       <c r="J15" s="42" t="n"/>
       <c r="K15" s="43" t="n"/>
-      <c r="L15" s="22" t="n"/>
+      <c r="L15" s="22" t="inlineStr"/>
       <c r="M15" s="42" t="n"/>
       <c r="N15" s="42" t="n"/>
       <c r="O15" s="42" t="n"/>
@@ -1130,7 +1138,11 @@
       <c r="I16" s="42" t="n"/>
       <c r="J16" s="42" t="n"/>
       <c r="K16" s="43" t="n"/>
-      <c r="L16" s="22" t="n"/>
+      <c r="L16" s="22" t="inlineStr">
+        <is>
+          <t>Edebiyat Fakültesi Bilgi Ve Belge Yönetimi</t>
+        </is>
+      </c>
       <c r="M16" s="42" t="n"/>
       <c r="N16" s="42" t="n"/>
       <c r="O16" s="42" t="n"/>
@@ -1162,7 +1174,7 @@
       <c r="I17" s="42" t="n"/>
       <c r="J17" s="42" t="n"/>
       <c r="K17" s="43" t="n"/>
-      <c r="L17" s="22" t="n"/>
+      <c r="L17" s="22" t="inlineStr"/>
       <c r="M17" s="42" t="n"/>
       <c r="N17" s="42" t="n"/>
       <c r="O17" s="42" t="n"/>
@@ -1194,7 +1206,7 @@
       <c r="I18" s="42" t="n"/>
       <c r="J18" s="42" t="n"/>
       <c r="K18" s="43" t="n"/>
-      <c r="L18" s="22" t="n"/>
+      <c r="L18" s="22" t="inlineStr"/>
       <c r="M18" s="42" t="n"/>
       <c r="N18" s="42" t="n"/>
       <c r="O18" s="42" t="n"/>
@@ -1226,7 +1238,7 @@
       <c r="I19" s="42" t="n"/>
       <c r="J19" s="42" t="n"/>
       <c r="K19" s="43" t="n"/>
-      <c r="L19" s="22" t="n"/>
+      <c r="L19" s="22" t="inlineStr"/>
       <c r="M19" s="42" t="n"/>
       <c r="N19" s="42" t="n"/>
       <c r="O19" s="42" t="n"/>
@@ -1356,7 +1368,11 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="B23" s="19" t="n"/>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>İngilizce</t>
+        </is>
+      </c>
       <c r="C23" s="42" t="n"/>
       <c r="D23" s="42" t="n"/>
       <c r="E23" s="42" t="n"/>
@@ -1370,9 +1386,17 @@
       <c r="M23" s="22" t="n"/>
       <c r="N23" s="42" t="n"/>
       <c r="O23" s="43" t="n"/>
-      <c r="P23" s="22" t="n"/>
+      <c r="P23" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q23" s="43" t="n"/>
-      <c r="R23" s="22" t="n"/>
+      <c r="R23" s="22" t="inlineStr">
+        <is>
+          <t>Hacettepe YDYO</t>
+        </is>
+      </c>
       <c r="S23" s="42" t="n"/>
       <c r="T23" s="42" t="n"/>
       <c r="U23" s="42" t="n"/>
@@ -1388,7 +1412,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="B24" s="19" t="n"/>
+      <c r="B24" s="19" t="inlineStr"/>
       <c r="C24" s="42" t="n"/>
       <c r="D24" s="42" t="n"/>
       <c r="E24" s="42" t="n"/>
@@ -2286,7 +2310,11 @@
       <c r="F44" s="42" t="n"/>
       <c r="G44" s="42" t="n"/>
       <c r="H44" s="43" t="n"/>
-      <c r="I44" s="22" t="n"/>
+      <c r="I44" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J44" s="43" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="43" t="n"/>
